--- a/scene_cat_exp_2023.2.2_english/input_files/39_scenecat_memory_bedrooms_1.xlsx
+++ b/scene_cat_exp_2023.2.2_english/input_files/39_scenecat_memory_bedrooms_1.xlsx
@@ -479,7 +479,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -500,50 +500,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_4wq98.png</t>
+          <t>stimuli/img_ic3os.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>78.48387096774194</v>
+        <v>84.79069767441861</v>
       </c>
       <c r="N2">
-        <v>58.12903225806452</v>
+        <v>66.16279069767442</v>
       </c>
       <c r="O2">
-        <v>68.30645161290323</v>
+        <v>75.47674418604652</v>
       </c>
       <c r="P2">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="Q2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V2">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +561,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -565,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -589,17 +594,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_a8y4y.png</t>
+          <t>stimuli/img_bntrh.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>75.15789473684211</v>
+        <v>76.07894736842105</v>
       </c>
       <c r="N3">
-        <v>53.76315789473684</v>
+        <v>53.36842105263158</v>
       </c>
       <c r="O3">
-        <v>64.46052631578948</v>
+        <v>64.72368421052632</v>
       </c>
       <c r="P3">
         <v>38</v>
@@ -633,7 +638,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -642,7 +647,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -671,38 +676,38 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_x0u5z.png</t>
+          <t>stimuli/img_yteqw.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>92</v>
+        <v>66.83783783783784</v>
       </c>
       <c r="N4">
-        <v>78.16216216216216</v>
+        <v>43.78378378378378</v>
       </c>
       <c r="O4">
-        <v>85.08108108108108</v>
+        <v>55.31081081081081</v>
       </c>
       <c r="P4">
         <v>37</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="U4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -715,7 +720,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -724,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>44</v>
+        <v>125</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -736,50 +741,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_u2o6z.png</t>
+          <t>stimuli/img_3bxjb.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>58.6</v>
+        <v>87.28571428571429</v>
       </c>
       <c r="N5">
-        <v>38.2</v>
+        <v>72.65714285714286</v>
       </c>
       <c r="O5">
-        <v>48.40000000000001</v>
+        <v>79.97142857142858</v>
       </c>
       <c r="P5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="U5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="V5">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -792,7 +802,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -801,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -813,50 +823,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_kljj4.png</t>
+          <t>stimuli/img_9pfbj.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>64.34999999999999</v>
+        <v>91.27272727272727</v>
       </c>
       <c r="N6">
-        <v>44.15</v>
+        <v>80.09090909090909</v>
       </c>
       <c r="O6">
-        <v>54.25</v>
+        <v>85.68181818181819</v>
       </c>
       <c r="P6">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="R6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="T6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="U6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -869,7 +884,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -878,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -890,55 +905,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_f4jxo.png</t>
+          <t>stimuli/img_badai.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>82.91666666666667</v>
+        <v>63.97435897435897</v>
       </c>
       <c r="N7">
-        <v>65.52777777777777</v>
+        <v>43.38461538461539</v>
       </c>
       <c r="O7">
-        <v>74.22222222222223</v>
+        <v>53.67948717948718</v>
       </c>
       <c r="P7">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V7">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -951,7 +961,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -960,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -972,55 +982,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_le8uf.png</t>
+          <t>stimuli/img_zv0dq.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>12.88888888888889</v>
+        <v>76.86842105263158</v>
       </c>
       <c r="N8">
-        <v>9.222222222222221</v>
+        <v>52.71052631578947</v>
       </c>
       <c r="O8">
-        <v>11.05555555555556</v>
+        <v>64.78947368421052</v>
       </c>
       <c r="P8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V8">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1033,7 +1038,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1042,7 +1047,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>48</v>
+        <v>129</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1054,50 +1059,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_ozxpp.png</t>
+          <t>stimuli/img_z3yzz.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>26.26470588235294</v>
+        <v>71.71052631578948</v>
       </c>
       <c r="N9">
-        <v>11.47058823529412</v>
+        <v>49.81578947368421</v>
       </c>
       <c r="O9">
-        <v>18.86764705882353</v>
+        <v>60.76315789473685</v>
       </c>
       <c r="P9">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1110,7 +1120,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1119,7 +1129,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1131,50 +1141,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_ce55l.png</t>
+          <t>stimuli/img_t4hvr.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>82.23809523809524</v>
+        <v>61.69230769230769</v>
       </c>
       <c r="N10">
-        <v>64.07142857142857</v>
+        <v>39.76923076923077</v>
       </c>
       <c r="O10">
-        <v>73.1547619047619</v>
+        <v>50.73076923076923</v>
       </c>
       <c r="P10">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="T10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="U10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="V10">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1187,7 +1202,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1196,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1208,37 +1223,32 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_e26ut.png</t>
+          <t>stimuli/img_6ddrx.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>81.07692307692308</v>
+        <v>82.2</v>
       </c>
       <c r="N11">
-        <v>61.28205128205128</v>
+        <v>63.68571428571428</v>
       </c>
       <c r="O11">
-        <v>71.17948717948718</v>
+        <v>72.94285714285715</v>
       </c>
       <c r="P11">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -1269,7 +1279,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1278,7 +1288,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1307,38 +1317,38 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_jp28n.png</t>
+          <t>stimuli/img_aweye.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>65.02564102564102</v>
+        <v>53.42105263157895</v>
       </c>
       <c r="N12">
-        <v>44.97435897435897</v>
+        <v>31.84210526315789</v>
       </c>
       <c r="O12">
-        <v>55</v>
+        <v>42.63157894736842</v>
       </c>
       <c r="P12">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V12">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1351,7 +1361,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1360,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1384,38 +1394,38 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_ca8kd.png</t>
+          <t>stimuli/img_qbdgm.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>92.05405405405405</v>
+        <v>76.88095238095238</v>
       </c>
       <c r="N13">
-        <v>73.02702702702703</v>
+        <v>60.40476190476191</v>
       </c>
       <c r="O13">
-        <v>82.54054054054055</v>
+        <v>68.64285714285714</v>
       </c>
       <c r="P13">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="T13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="U13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="V13">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1428,7 +1438,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1437,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>53</v>
+        <v>134</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1461,38 +1471,38 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_c4uwt.png</t>
+          <t>stimuli/img_kn0we.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>44.48387096774194</v>
+        <v>80.15909090909091</v>
       </c>
       <c r="N14">
-        <v>30.06451612903226</v>
+        <v>56.68181818181818</v>
       </c>
       <c r="O14">
-        <v>37.2741935483871</v>
+        <v>68.42045454545455</v>
       </c>
       <c r="P14">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="Q14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1505,7 +1515,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1514,7 +1524,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>54</v>
+        <v>135</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1526,50 +1536,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_g2akb.png</t>
+          <t>stimuli/img_anzgh.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>87.875</v>
+        <v>75.10526315789474</v>
       </c>
       <c r="N15">
-        <v>79</v>
+        <v>55.76315789473684</v>
       </c>
       <c r="O15">
-        <v>83.4375</v>
+        <v>65.43421052631579</v>
       </c>
       <c r="P15">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="T15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="V15">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1582,7 +1597,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1591,7 +1606,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1603,50 +1618,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_0eflx.png</t>
+          <t>stimuli/img_kzg3h.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>76.05128205128206</v>
+        <v>77.02777777777777</v>
       </c>
       <c r="N16">
-        <v>53.53846153846154</v>
+        <v>56.22222222222222</v>
       </c>
       <c r="O16">
-        <v>64.7948717948718</v>
+        <v>66.625</v>
       </c>
       <c r="P16">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V16">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1659,7 +1679,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1668,7 +1688,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>56</v>
+        <v>137</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1697,38 +1717,38 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_juob3.png</t>
+          <t>stimuli/img_cgdyc.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>79.92105263157895</v>
+        <v>32.93023255813954</v>
       </c>
       <c r="N17">
-        <v>59.78947368421053</v>
+        <v>14.04651162790698</v>
       </c>
       <c r="O17">
-        <v>69.85526315789474</v>
+        <v>23.48837209302326</v>
       </c>
       <c r="P17">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1741,7 +1761,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1750,16 +1770,21 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>bedrooms</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1769,8 +1794,38 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/catch_25.jpg</t>
-        </is>
+          <t>stimuli/img_bklr1.png</t>
+        </is>
+      </c>
+      <c r="M18">
+        <v>86.54761904761905</v>
+      </c>
+      <c r="N18">
+        <v>67.73809523809524</v>
+      </c>
+      <c r="O18">
+        <v>77.14285714285714</v>
+      </c>
+      <c r="P18">
+        <v>42</v>
+      </c>
+      <c r="Q18">
+        <v>9</v>
+      </c>
+      <c r="R18">
+        <v>9</v>
+      </c>
+      <c r="S18">
+        <v>9</v>
+      </c>
+      <c r="T18">
+        <v>9</v>
+      </c>
+      <c r="U18">
+        <v>9</v>
+      </c>
+      <c r="V18">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1783,7 +1838,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1792,7 +1847,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1816,38 +1871,38 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_5yhyk.png</t>
+          <t>stimuli/img_jge7p.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>46.375</v>
+        <v>90.42424242424242</v>
       </c>
       <c r="N19">
-        <v>31.325</v>
+        <v>75.63636363636364</v>
       </c>
       <c r="O19">
-        <v>38.85</v>
+        <v>83.03030303030303</v>
       </c>
       <c r="P19">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1860,7 +1915,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1869,7 +1924,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>59</v>
+        <v>140</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1898,38 +1953,38 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_cmyvx.png</t>
+          <t>stimuli/img_gbypq.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>64.25</v>
+        <v>76.27500000000001</v>
       </c>
       <c r="N20">
-        <v>40.09375</v>
+        <v>51.925</v>
       </c>
       <c r="O20">
-        <v>52.171875</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="P20">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V20">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1942,7 +1997,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1951,7 +2006,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>60</v>
+        <v>141</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1963,55 +2018,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_t2ioc.png</t>
+          <t>stimuli/img_o37la.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>88.18918918918919</v>
+        <v>65.24324324324324</v>
       </c>
       <c r="N21">
-        <v>74.05405405405405</v>
+        <v>42.78378378378378</v>
       </c>
       <c r="O21">
-        <v>81.12162162162161</v>
+        <v>54.01351351351352</v>
       </c>
       <c r="P21">
         <v>37</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="U21">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V21">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -2024,7 +2074,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2033,7 +2083,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2057,38 +2107,38 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_scrdm.png</t>
+          <t>stimuli/img_ri0yx.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>78.675</v>
+        <v>88.96969696969697</v>
       </c>
       <c r="N22">
-        <v>57.9</v>
+        <v>77.15151515151516</v>
       </c>
       <c r="O22">
-        <v>68.28749999999999</v>
+        <v>83.06060606060606</v>
       </c>
       <c r="P22">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="U22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="V22">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -2101,7 +2151,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2110,7 +2160,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2122,55 +2172,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_1vq1v.png</t>
+          <t>stimuli/img_fbihy.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>69.42857142857143</v>
+        <v>44.39024390243902</v>
       </c>
       <c r="N23">
-        <v>46.59523809523809</v>
+        <v>26.90243902439024</v>
       </c>
       <c r="O23">
-        <v>58.01190476190476</v>
+        <v>35.64634146341464</v>
       </c>
       <c r="P23">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2183,7 +2228,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2192,7 +2237,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2204,50 +2249,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_0nckg.png</t>
+          <t>stimuli/img_okvvw.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>65.94285714285714</v>
+        <v>50.58333333333334</v>
       </c>
       <c r="N24">
-        <v>41.17142857142857</v>
+        <v>32.11111111111111</v>
       </c>
       <c r="O24">
-        <v>53.55714285714285</v>
+        <v>41.34722222222223</v>
       </c>
       <c r="P24">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2260,7 +2310,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2269,7 +2319,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>64</v>
+        <v>145</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2281,37 +2331,32 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_5il0t.png</t>
+          <t>stimuli/img_65cdi.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>48.09523809523809</v>
+        <v>46.92307692307692</v>
       </c>
       <c r="N25">
-        <v>30.90476190476191</v>
+        <v>27</v>
       </c>
       <c r="O25">
-        <v>39.5</v>
+        <v>36.96153846153846</v>
       </c>
       <c r="P25">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q25">
         <v>2</v>
@@ -2342,7 +2387,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -2351,67 +2396,27 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>65</v>
+        <v>146</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>bedrooms</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_rvssl.png</t>
-        </is>
-      </c>
-      <c r="M26">
-        <v>74.25</v>
-      </c>
-      <c r="N26">
-        <v>54.33333333333334</v>
-      </c>
-      <c r="O26">
-        <v>64.29166666666667</v>
-      </c>
-      <c r="P26">
-        <v>36</v>
-      </c>
-      <c r="Q26">
-        <v>6</v>
-      </c>
-      <c r="R26">
-        <v>6</v>
-      </c>
-      <c r="S26">
-        <v>6</v>
-      </c>
-      <c r="T26">
-        <v>6</v>
-      </c>
-      <c r="U26">
-        <v>6</v>
-      </c>
-      <c r="V26">
-        <v>6</v>
+          <t>stimuli/catch_04.jpg</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -2424,7 +2429,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2433,7 +2438,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2445,50 +2450,55 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_psgf7.png</t>
+          <t>stimuli/img_v8dra.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>26</v>
+        <v>61.77272727272727</v>
       </c>
       <c r="N27">
-        <v>11.66666666666667</v>
+        <v>38.79545454545455</v>
       </c>
       <c r="O27">
-        <v>18.83333333333333</v>
+        <v>50.28409090909091</v>
       </c>
       <c r="P27">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2501,7 +2511,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2510,7 +2520,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2534,20 +2544,20 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_zt893.png</t>
+          <t>stimuli/img_sfh4b.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>68.53191489361703</v>
+        <v>69.06521739130434</v>
       </c>
       <c r="N28">
-        <v>49.19148936170212</v>
+        <v>49.54347826086956</v>
       </c>
       <c r="O28">
-        <v>58.86170212765958</v>
+        <v>59.30434782608695</v>
       </c>
       <c r="P28">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -2578,7 +2588,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -2587,7 +2597,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2616,20 +2626,20 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_wyctg.png</t>
+          <t>stimuli/img_2pnl2.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>33.44736842105263</v>
+        <v>6.621621621621622</v>
       </c>
       <c r="N29">
-        <v>11.39473684210526</v>
+        <v>7.135135135135135</v>
       </c>
       <c r="O29">
-        <v>22.42105263157895</v>
+        <v>6.878378378378379</v>
       </c>
       <c r="P29">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -2660,7 +2670,7 @@
         </is>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -2669,7 +2679,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2681,55 +2691,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>stimuli/img_2js6m.png</t>
+          <t>stimuli/img_9z99v.png</t>
         </is>
       </c>
       <c r="M30">
-        <v>40.02777777777778</v>
+        <v>81.15625</v>
       </c>
       <c r="N30">
-        <v>20.88888888888889</v>
+        <v>64.78125</v>
       </c>
       <c r="O30">
-        <v>30.45833333333334</v>
+        <v>72.96875</v>
       </c>
       <c r="P30">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Q30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="U30">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -2742,7 +2747,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -2751,7 +2756,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>70</v>
+        <v>151</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2780,38 +2785,38 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>stimuli/img_3h4c9.png</t>
+          <t>stimuli/img_fqgem.png</t>
         </is>
       </c>
       <c r="M31">
-        <v>85.47619047619048</v>
+        <v>80.75</v>
       </c>
       <c r="N31">
-        <v>67.26190476190476</v>
+        <v>61.475</v>
       </c>
       <c r="O31">
-        <v>76.36904761904762</v>
+        <v>71.1125</v>
       </c>
       <c r="P31">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U31">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V31">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -2824,7 +2829,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -2833,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>71</v>
+        <v>152</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2857,20 +2862,20 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>stimuli/img_zi682.png</t>
+          <t>stimuli/img_i7vab.png</t>
         </is>
       </c>
       <c r="M32">
-        <v>84.59999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="N32">
-        <v>69.52500000000001</v>
+        <v>67.8</v>
       </c>
       <c r="O32">
-        <v>77.0625</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="P32">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="Q32">
         <v>9</v>
@@ -2901,7 +2906,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -2910,7 +2915,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -2934,38 +2939,38 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>stimuli/img_bpyv5.png</t>
+          <t>stimuli/img_sltwe.png</t>
         </is>
       </c>
       <c r="M33">
-        <v>59.05882352941177</v>
+        <v>72.02500000000001</v>
       </c>
       <c r="N33">
-        <v>37.55882352941177</v>
+        <v>46.875</v>
       </c>
       <c r="O33">
-        <v>48.30882352941177</v>
+        <v>59.45</v>
       </c>
       <c r="P33">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34">
@@ -2978,7 +2983,7 @@
         </is>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -2987,7 +2992,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>73</v>
+        <v>154</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3016,38 +3021,38 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>stimuli/img_oou46.png</t>
+          <t>stimuli/img_bj2gr.png</t>
         </is>
       </c>
       <c r="M34">
-        <v>75.70270270270271</v>
+        <v>65.25</v>
       </c>
       <c r="N34">
-        <v>54.86486486486486</v>
+        <v>44.8</v>
       </c>
       <c r="O34">
-        <v>65.28378378378379</v>
+        <v>55.025</v>
       </c>
       <c r="P34">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U34">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V34">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
@@ -3060,7 +3065,7 @@
         </is>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3069,7 +3074,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3081,37 +3086,32 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>stimuli/img_72fmj.png</t>
+          <t>stimuli/img_dmjh8.png</t>
         </is>
       </c>
       <c r="M35">
-        <v>53.87179487179487</v>
+        <v>57.48648648648648</v>
       </c>
       <c r="N35">
-        <v>36.02564102564103</v>
+        <v>37.64864864864865</v>
       </c>
       <c r="O35">
-        <v>44.94871794871795</v>
+        <v>47.56756756756756</v>
       </c>
       <c r="P35">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3151,7 +3151,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>75</v>
+        <v>156</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3180,38 +3180,38 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>stimuli/img_uxxo0.png</t>
+          <t>stimuli/img_ose78.png</t>
         </is>
       </c>
       <c r="M36">
-        <v>71.74418604651163</v>
+        <v>80.19444444444444</v>
       </c>
       <c r="N36">
-        <v>48.44186046511628</v>
+        <v>60.25</v>
       </c>
       <c r="O36">
-        <v>60.09302325581395</v>
+        <v>70.22222222222223</v>
       </c>
       <c r="P36">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="Q36">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="V36">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3257,38 +3257,38 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>stimuli/img_wijef.png</t>
+          <t>stimuli/img_7os7q.png</t>
         </is>
       </c>
       <c r="M37">
-        <v>69.875</v>
+        <v>59.7027027027027</v>
       </c>
       <c r="N37">
-        <v>48.025</v>
+        <v>34.94594594594594</v>
       </c>
       <c r="O37">
-        <v>58.95</v>
+        <v>47.32432432432432</v>
       </c>
       <c r="P37">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -3301,7 +3301,7 @@
         </is>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3310,7 +3310,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3334,38 +3334,38 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>stimuli/img_zgg62.png</t>
+          <t>stimuli/img_l1h36.png</t>
         </is>
       </c>
       <c r="M38">
-        <v>82.18421052631579</v>
+        <v>26.64285714285714</v>
       </c>
       <c r="N38">
-        <v>63.52631578947368</v>
+        <v>9.142857142857142</v>
       </c>
       <c r="O38">
-        <v>72.85526315789474</v>
+        <v>17.89285714285714</v>
       </c>
       <c r="P38">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q38">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R38">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S38">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V38">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3378,7 +3378,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3387,7 +3387,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3399,47 +3399,52 @@
           <t>bedrooms</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>stimuli/img_gqy6z.png</t>
+          <t>stimuli/img_5p2ql.png</t>
         </is>
       </c>
       <c r="M39">
-        <v>86.47368421052632</v>
+        <v>89.19565217391305</v>
       </c>
       <c r="N39">
-        <v>68.42105263157895</v>
+        <v>72.52173913043478</v>
       </c>
       <c r="O39">
-        <v>77.44736842105263</v>
+        <v>80.85869565217391</v>
       </c>
       <c r="P39">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="Q39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U39">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V39">
         <v>9</v>
@@ -3455,7 +3460,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3464,7 +3469,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3493,38 +3498,38 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>stimuli/img_cogrz.png</t>
+          <t>stimuli/img_jivhq.png</t>
         </is>
       </c>
       <c r="M40">
-        <v>60.5</v>
+        <v>37</v>
       </c>
       <c r="N40">
-        <v>39.71428571428572</v>
+        <v>22.26530612244898</v>
       </c>
       <c r="O40">
-        <v>50.10714285714286</v>
+        <v>29.63265306122449</v>
       </c>
       <c r="P40">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="Q40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -3537,7 +3542,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3546,7 +3551,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3575,20 +3580,20 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>stimuli/img_fnu4h.png</t>
+          <t>stimuli/img_2pk6v.png</t>
         </is>
       </c>
       <c r="M41">
-        <v>85.87179487179488</v>
+        <v>85.08108108108108</v>
       </c>
       <c r="N41">
-        <v>70.71794871794872</v>
+        <v>66.16216216216216</v>
       </c>
       <c r="O41">
-        <v>78.2948717948718</v>
+        <v>75.62162162162161</v>
       </c>
       <c r="P41">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q41">
         <v>9</v>
@@ -3606,7 +3611,7 @@
         <v>9</v>
       </c>
       <c r="V41">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42">
@@ -3619,7 +3624,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3628,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -3640,55 +3645,50 @@
           <t>bedrooms</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>stimuli/img_a9acb.png</t>
+          <t>stimuli/img_c2pbs.png</t>
         </is>
       </c>
       <c r="M42">
-        <v>77.11428571428571</v>
+        <v>21.95238095238095</v>
       </c>
       <c r="N42">
-        <v>58.42857142857143</v>
+        <v>14.47619047619048</v>
       </c>
       <c r="O42">
-        <v>67.77142857142857</v>
+        <v>18.21428571428572</v>
       </c>
       <c r="P42">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="Q42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
